--- a/Chennai Open.xlsx
+++ b/Chennai Open.xlsx
@@ -1,119 +1,192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vsmart\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$26</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Kaushik</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>manasa Devi</t>
-  </si>
-  <si>
-    <t>Krithik</t>
-  </si>
-  <si>
-    <t>Someshwaran</t>
-  </si>
-  <si>
-    <t>Viyanmathi</t>
-  </si>
-  <si>
-    <t>Mukundan (Junior)</t>
-  </si>
-  <si>
-    <t>Danvanth</t>
-  </si>
-  <si>
-    <t>Sanjana</t>
-  </si>
-  <si>
-    <t>Gowtham</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>Jeevan</t>
-  </si>
-  <si>
-    <t>Ritheesh</t>
-  </si>
-  <si>
-    <t>Shriyah</t>
-  </si>
-  <si>
-    <t>Pavithran</t>
-  </si>
-  <si>
-    <t>Sanjay - MZ</t>
-  </si>
-  <si>
-    <t>Krithikesh</t>
-  </si>
-  <si>
-    <t>Sruthi - Sanjay sister</t>
-  </si>
-  <si>
-    <t>Naveen</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>Vivek</t>
-  </si>
-  <si>
-    <t>Samir</t>
-  </si>
-  <si>
-    <t>Sidhesh</t>
-  </si>
-  <si>
-    <t>Navanesh</t>
-  </si>
-  <si>
-    <t>Janani</t>
-  </si>
-  <si>
     <t>Bavaniya</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>S.Shriyah</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>43 Kg</t>
+  </si>
+  <si>
+    <t>S.Sanjay</t>
+  </si>
+  <si>
+    <t>51 Kg</t>
+  </si>
+  <si>
+    <t>S.Shruthi</t>
+  </si>
+  <si>
+    <t>46 Kg</t>
+  </si>
+  <si>
+    <t>A.Manasa Devi</t>
+  </si>
+  <si>
+    <t>A.Mukunthan</t>
+  </si>
+  <si>
+    <t>33 Kg</t>
+  </si>
+  <si>
+    <t>S.Someshwaran</t>
+  </si>
+  <si>
+    <t>30 Kg</t>
+  </si>
+  <si>
+    <t>J.Jeevan</t>
+  </si>
+  <si>
+    <t>31 Kg</t>
+  </si>
+  <si>
+    <t>J.Janani</t>
+  </si>
+  <si>
+    <t>20 Kg</t>
+  </si>
+  <si>
+    <t>K.Siddesh</t>
+  </si>
+  <si>
+    <t>V.Pavithran</t>
+  </si>
+  <si>
+    <t>48 Kg</t>
+  </si>
+  <si>
+    <t>V.Viyanmathi</t>
+  </si>
+  <si>
+    <t>38 Kg</t>
+  </si>
+  <si>
+    <t>32 Kg</t>
+  </si>
+  <si>
+    <t>B.Sanjana</t>
+  </si>
+  <si>
+    <t>26 Kg</t>
+  </si>
+  <si>
+    <t>P.Kaushik</t>
+  </si>
+  <si>
+    <t>R.B.Ritheesh</t>
+  </si>
+  <si>
+    <t>R.Krithik</t>
+  </si>
+  <si>
+    <t>35 Kg</t>
+  </si>
+  <si>
+    <t>B.Krithikesh</t>
+  </si>
+  <si>
+    <t>42 Kg</t>
+  </si>
+  <si>
+    <t>V.Dhanvanth</t>
+  </si>
+  <si>
+    <t>28 Kg</t>
+  </si>
+  <si>
+    <t>K.P.Gowatham Kishore</t>
+  </si>
+  <si>
+    <t>70 Kg</t>
+  </si>
+  <si>
+    <t>S.Vivek</t>
+  </si>
+  <si>
+    <t>53 Kg</t>
+  </si>
+  <si>
+    <t>Sameerul Salman Yousouf I</t>
+  </si>
+  <si>
+    <t>76 kg</t>
+  </si>
+  <si>
+    <t>R.B.Navanesh</t>
+  </si>
+  <si>
+    <t>23 Kg</t>
+  </si>
+  <si>
+    <t>54 Kg</t>
+  </si>
+  <si>
+    <t>S.G.Mithilesh</t>
+  </si>
+  <si>
+    <t>63 Kg</t>
+  </si>
+  <si>
+    <t>K.S.Naveen</t>
+  </si>
+  <si>
+    <t>58 Kg</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +202,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,20 +216,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,49 +240,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -238,6 +267,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -286,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,207 +562,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40148</v>
+      </c>
+      <c r="D2" s="3">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4">
+        <v>40128</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41045</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4">
+        <v>40401</v>
+      </c>
+      <c r="D5" s="3">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40401</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4">
+        <v>40853</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40312</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41618</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40645</v>
+      </c>
+      <c r="D10" s="3">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4">
+        <v>39747</v>
+      </c>
+      <c r="D11" s="3">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>40105</v>
+      </c>
+      <c r="D12" s="3">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4">
+        <v>40619</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4">
+        <v>41100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4">
+        <v>40767</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4">
+        <v>39723</v>
+      </c>
+      <c r="D16" s="3">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4">
+        <v>40696</v>
+      </c>
+      <c r="D17" s="3">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4">
+        <v>40686</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4">
+        <v>40990</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4">
+        <v>39730</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4">
+        <v>37855</v>
+      </c>
+      <c r="D21" s="3">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4">
+        <v>36045</v>
+      </c>
+      <c r="D22" s="3">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4">
+        <v>41474</v>
+      </c>
+      <c r="D23" s="3">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D24" s="3">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4">
+        <v>37450</v>
+      </c>
+      <c r="D25" s="3">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5"/>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4">
+        <v>37320</v>
+      </c>
+      <c r="D26" s="3">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
